--- a/trend_results/Rivers/MangawheroatRaupiuRoad_cab14b25e7.xlsx
+++ b/trend_results/Rivers/MangawheroatRaupiuRoad_cab14b25e7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.35545855669431</v>
+        <v>0.64454144330569</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.306009731987012</v>
+        <v>0.693990268012988</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.868888155846632</v>
+        <v>0.131111844153368</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2825,14 +2825,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.231216363225238</v>
+        <v>0.846199999559381</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.0461538461538462</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0.392307692307692</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>0.275</v>
+        <v>0.5</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0201725707555727</v>
+        <v>0.004088279219505</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0589197161929646</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0116187530436713</v>
+        <v>0.0215432644448611</v>
       </c>
       <c r="N27" t="n">
-        <v>-7.3354802747537</v>
+        <v>0.817655843901019</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2902,7 +2902,11 @@
           <t>Whau_3e</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr"/>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2912,14 +2916,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2927,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.110335680959923</v>
+        <v>0.428749640515761</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0.844827586206897</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89</v>
+        <v>10.455</v>
       </c>
       <c r="K28" t="n">
-        <v>-2.48386121099417</v>
+        <v>-0.0033259997904866</v>
       </c>
       <c r="L28" t="n">
-        <v>-6.84270567261108</v>
+        <v>-0.0351099475608456</v>
       </c>
       <c r="M28" t="n">
-        <v>0.06986913340034361</v>
+        <v>0.02604767027856</v>
       </c>
       <c r="N28" t="n">
-        <v>-2.79085529325187</v>
+        <v>-0.0318125278860515</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2960,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2989,7 +2993,11 @@
           <t>Whau_3e</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2999,46 +3007,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.889664319040077</v>
+        <v>0.0001712248174078</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.106741573033708</v>
       </c>
       <c r="H29" t="n">
+        <v>0.129213483146067</v>
+      </c>
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
-        <v>4.11</v>
+        <v>0.01</v>
       </c>
       <c r="K29" t="n">
-        <v>0.181100700936328</v>
+        <v>0.0003489967239967</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.198267265187523</v>
+        <v>0.0001779683834349</v>
       </c>
       <c r="M29" t="n">
-        <v>0.376949973168355</v>
+        <v>0.0005084952947861</v>
       </c>
       <c r="N29" t="n">
-        <v>4.40634308847513</v>
+        <v>3.48996723996724</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3047,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3076,7 +3084,11 @@
           <t>Whau_3e</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3086,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3101,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.015911563693245</v>
+        <v>0.74484544469208</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.0225988700564972</v>
       </c>
       <c r="H30" t="n">
+        <v>0.672316384180791</v>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>0.3265</v>
+        <v>150</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0122449712643678</v>
+        <v>-1.16626876187979</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0234235740996437</v>
+        <v>-4.77521345785654</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.0066443725679829</v>
+        <v>1.57067660625277</v>
       </c>
       <c r="N30" t="n">
-        <v>-3.75037404727957</v>
+        <v>-0.777512507919862</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3134,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3163,7 +3175,11 @@
           <t>Whau_3e</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3173,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.0076611205275499</v>
+        <v>0.641296151663441</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.745562130177515</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9</v>
+        <v>0.289940828402367</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J31" t="n">
-        <v>94.5</v>
+        <v>0.005</v>
       </c>
       <c r="K31" t="n">
-        <v>-1.77675469075747</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-2.88174300707195</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-1.00810395072428</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.88016369392325</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3221,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3250,7 +3266,11 @@
           <t>Whau_3e</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3260,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3275,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.429013828493761</v>
+        <v>0.0065835902057167</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.232258064516129</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.129032258064516</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>4.08</v>
+        <v>0.003</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0142755443886096</v>
+        <v>9.96317512274959e-05</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.137173659970372</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0582595285374062</v>
+        <v>0.0001672869826749</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.34989079383847</v>
+        <v>3.32105837424986</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3308,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3337,7 +3357,1075 @@
           <t>Whau_3e</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.127716896890777</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.183544303797468</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.765822784810127</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0037168759002687</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.19691173732343</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.686046511627907</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>7.665</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.0080218056318143</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0232900481041273</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.009971429727394201</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.104654998458113</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.191735149219041</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0056179775280898</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.814606741573034</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.2725</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0009192376940717</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.0008095395772091</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0032659030849268</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.337334933604322</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.637416866558592</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.638418079096045</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.0014553927464625</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0067064983456466</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0039019049136286</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.269018991952404</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.463901883656311</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.471910112359551</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0005383556852297</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0005997536945812</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.636197870151501</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.932584269662921</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.0153227999609324</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.109129501733123</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0860314387743638</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.268821051946182</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>5</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.0201725707555727</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0589197161929646</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0116187530436713</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-7.3354802747537</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.110335680959923</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>89</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-2.48386121099417</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-6.84270567261108</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.06986913340034361</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-2.79085529325187</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.889664319040077</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.181100700936328</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.198267265187523</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.376949973168355</v>
+      </c>
+      <c r="N41" t="n">
+        <v>4.40634308847513</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>10</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.015911563693245</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.3265</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.0122449712643678</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.0234235740996437</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.0066443725679829</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-3.75037404727957</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0076611205275499</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-1.77675469075747</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-2.88174300707195</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-1.00810395072428</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-1.88016369392325</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mangawhero at Raupiu Road</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>10</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.429013828493761</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.0142755443886096</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.137173659970372</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.0582595285374062</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.34989079383847</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1799862</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5602910</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Whau_3e</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangawheroatRaupiuRoad_cab14b25e7.xlsx
+++ b/trend_results/Rivers/MangawheroatRaupiuRoad_cab14b25e7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.64454144330569</v>
+        <v>0.946369420276943</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.948275862068966</v>
+        <v>0.946428571428571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.57</v>
+        <v>10.615</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0200672264338535</v>
+        <v>0.09055785123966929</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0511264136705521</v>
+        <v>-0.0011225839064131</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0996430002499839</v>
+        <v>0.147590354937868</v>
       </c>
       <c r="N2" t="n">
-        <v>0.189850770424347</v>
+        <v>0.8531121171895359</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.0416510618898538</v>
+        <v>0.0902454311447578</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.389830508474576</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.012</v>
+        <v>0.0115</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0009798792756539</v>
+        <v>0.0007678696566222</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0023121299917468</v>
+        <v>0.0020043519088364</v>
       </c>
       <c r="N3" t="n">
-        <v>8.165660630449359</v>
+        <v>6.67712744888943</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -747,39 +747,39 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.645414173805564</v>
+        <v>0.5</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0508474576271186</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="H4" t="n">
-        <v>0.677966101694915</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="K4" t="n">
-        <v>-4.5832528957529</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-37.3114650262153</v>
+        <v>-13.3401054252038</v>
       </c>
       <c r="M4" t="n">
-        <v>21.8448538373727</v>
+        <v>49.4863410660955</v>
       </c>
       <c r="N4" t="n">
-        <v>-3.05550193050193</v>
+        <v>0</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -842,17 +842,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.239539179757008</v>
+        <v>0.114859882726726</v>
       </c>
       <c r="G5" t="n">
-        <v>0.722222222222222</v>
+        <v>0.759259259259259</v>
       </c>
       <c r="H5" t="n">
-        <v>0.296296296296296</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="I5" t="n">
         <v>2</v>
@@ -933,17 +933,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.397983046802821</v>
+        <v>0.982621049469406</v>
       </c>
       <c r="G6" t="n">
-        <v>0.172413793103448</v>
+        <v>0.192982456140351</v>
       </c>
       <c r="H6" t="n">
-        <v>0.155172413793103</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -952,16 +952,16 @@
         <v>0.004</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0.0003069327731092</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-0.000668956043956</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0003273481199943</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-7.67331932773109</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1024,35 +1024,35 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.478523131612923</v>
+        <v>0.130225672410213</v>
       </c>
       <c r="G7" t="n">
-        <v>0.172413793103448</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="H7" t="n">
-        <v>0.810344827586207</v>
+        <v>0.8245614035087721</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.277</v>
+        <v>0.289</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.0201563895490993</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0299107054755017</v>
+        <v>-0.0077773116917405</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0295970166055995</v>
+        <v>0.062442290693147</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>6.97452925574371</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1115,17 +1115,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.5</v>
+        <v>0.890795406690379</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.859649122807018</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>7.6</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.0493581081081088</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0946195814818046</v>
+        <v>-0.0026590534555604</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0530496166716146</v>
+        <v>0.0982909930210549</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.649448790896168</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1206,31 +1206,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.0181792765863954</v>
+        <v>8.50348606845953e-05</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.966101694915254</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.298</v>
+        <v>0.308</v>
       </c>
       <c r="K9" t="n">
-        <v>0.015169249144801</v>
+        <v>0.0305011574464496</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0026065681256199</v>
+        <v>0.0137760012624862</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0360144322308185</v>
+        <v>0.0496976536065399</v>
       </c>
       <c r="N9" t="n">
-        <v>5.09035206201374</v>
+        <v>9.902973196899231</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1293,35 +1293,35 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.7217914738458719</v>
+        <v>0.125905377628042</v>
       </c>
       <c r="G10" t="n">
-        <v>0.101694915254237</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.542372881355932</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.372880731770785</v>
+        <v>0.023190709908893</v>
       </c>
       <c r="L10" t="n">
-        <v>-2.00445839770352</v>
+        <v>-0.0045738736802244</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02798666125011</v>
+        <v>0.0697895815026999</v>
       </c>
       <c r="N10" t="n">
-        <v>-3.38982483427986</v>
+        <v>4.14119819801661</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1373,22 +1373,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.5</v>
+        <v>0.0314746756709808</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1400,19 +1400,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.525</v>
+        <v>0.0335</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.0040137362637362</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0200355141925257</v>
+        <v>0.0002913832619108</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0351779613786013</v>
+        <v>0.0082468089019457</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>11.9813022798097</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.427313492777076</v>
+        <v>0.253508774251516</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6949152542372879</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.034</v>
+        <v>5.43</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0002448056300268</v>
+        <v>0.173915010803947</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0031963446210384</v>
+        <v>-0.19349695894046</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0039173789285982</v>
+        <v>1.33951111591079</v>
       </c>
       <c r="N12" t="n">
-        <v>0.720016558902382</v>
+        <v>3.20285471093825</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1555,46 +1555,46 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0005327192829039</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0487804878048781</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.524390243902439</v>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>0.741998532278207</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
       <c r="J13" t="n">
-        <v>7.24</v>
+        <v>0.485</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.197448897838782</v>
+        <v>-0.0724702380952381</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.22260972011791</v>
+        <v>-0.132862018906872</v>
       </c>
       <c r="M13" t="n">
-        <v>0.239905201942703</v>
+        <v>-0.0272054230309465</v>
       </c>
       <c r="N13" t="n">
-        <v>-2.72719472153013</v>
+        <v>-14.9423171330388</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1657,35 +1657,35 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.5</v>
+        <v>0.976636897618723</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0459770114942529</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.482758620689655</v>
+        <v>0.895652173913044</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6899999999999999</v>
+        <v>10.55</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.0343222351819258</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0499794745484401</v>
+        <v>0.0063705853324666</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0200628093443724</v>
+        <v>0.06604674907343359</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>0.325329243430576</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1737,46 +1737,46 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>10</v>
       </c>
       <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.391590734034656</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0508474576271186</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.194915254237288</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>0.693990268012988</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.888888888888889</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
-        <v>10.52</v>
+        <v>0.011</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0099387755102038</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0276888401961657</v>
+        <v>-0.0002449698189134</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0451545329670329</v>
+        <v>0.0003478571428571</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0944750523783638</v>
+        <v>0</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.231984514026327</v>
+        <v>0.322972205631948</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0504201680672269</v>
+        <v>0.0258620689655172</v>
       </c>
       <c r="H16" t="n">
-        <v>0.19327731092437</v>
+        <v>0.646551724137931</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0.011</v>
+        <v>145</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>2.01239669421488</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0001247978883006</v>
+        <v>-4.29898068841707</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0004693625697279</v>
+        <v>13.3585715412305</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.38785978911371</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -1919,46 +1919,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.573428644334762</v>
+        <v>0.114285950235469</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0254237288135593</v>
+        <v>0.794642857142857</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6610169491525421</v>
+        <v>0.258928571428571</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
-        <v>153</v>
+        <v>0.005</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.898373988294239</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-10.3132738512116</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>5.98362531752847</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.5871725413687841</v>
+        <v>0</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2010,14 +2010,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2025,25 +2025,25 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.208633729268098</v>
+        <v>0.986721153392459</v>
       </c>
       <c r="G18" t="n">
-        <v>0.785714285714286</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="H18" t="n">
-        <v>0.267857142857143</v>
+        <v>0.162393162393162</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>-0.0002496582365003</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.950272141239457</v>
+        <v>0.016962871584832</v>
       </c>
       <c r="G19" t="n">
-        <v>0.127118644067797</v>
+        <v>0.179487179487179</v>
       </c>
       <c r="H19" t="n">
-        <v>0.169491525423729</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.004</v>
+        <v>0.271</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.0034410328879753</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0002496865180637</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.008330362274557</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.26975383320123</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.106965537825558</v>
+        <v>0.586550094798959</v>
       </c>
       <c r="G20" t="n">
-        <v>0.194915254237288</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.779661016949153</v>
+        <v>0.747826086956522</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2702</v>
+        <v>7.61</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.0029130226301215</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>-0.0185377917470355</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0049888193173767</v>
+        <v>0.0266827729604622</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>0.0382788781881939</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2269,11 +2269,7 @@
           <t>Whau_3e</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2283,7 +2279,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2298,31 +2294,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.131111844153368</v>
+        <v>0.0040579747152064</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.008474576271186401</v>
       </c>
       <c r="H21" t="n">
-        <v>0.773913043478261</v>
+        <v>0.855932203389831</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>7.61</v>
+        <v>0.2915</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.0163586664772009</v>
+        <v>0.0055521761734997</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.051872433087653</v>
+        <v>0.00159934318555</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0052400297789214</v>
+        <v>0.0111807892140969</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.214962765797647</v>
+        <v>1.90469165471688</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2327,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,7 +2356,11 @@
           <t>Whau_3e</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr"/>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2385,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.0420039029832421</v>
+        <v>0.739949756491065</v>
       </c>
       <c r="G22" t="n">
-        <v>0.008403361344537799</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.840336134453782</v>
+        <v>0.675213675213675</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.285</v>
+        <v>0.55</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0031282117163412</v>
+        <v>-0.0024965823650034</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0001475122271605</v>
+        <v>-0.0099957339122292</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0070132443623021</v>
+        <v>0.0087003919348322</v>
       </c>
       <c r="N22" t="n">
-        <v>1.09761814608464</v>
+        <v>-0.453924066364256</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2461,46 +2461,46 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.691503109601977</v>
+        <v>0.193333948300971</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0756302521008403</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.445378151260504</v>
+        <v>0.542372881355932</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>9</v>
+        <v>0.031</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.0005044889502762001</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.501556431296284</v>
+        <v>-0.0004674405968376</v>
       </c>
       <c r="M23" t="n">
-        <v>0.199866884507201</v>
+        <v>0.0014908163265306</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1.62738371056853</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2567,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.911630661962332</v>
+        <v>0.531594034257647</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.711864406779661</v>
+        <v>0.940677966101695</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5455</v>
+        <v>5.43</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0061026649389263</v>
+        <v>-0.0076735904840706</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0175600961538462</v>
+        <v>-0.179961094916519</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0013399324571046</v>
+        <v>0.175335440260355</v>
       </c>
       <c r="N24" t="n">
-        <v>-1.11872867808</v>
+        <v>-0.141318425121006</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2643,46 +2643,46 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.731746953564776</v>
+        <v>0.5</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.040650406504065</v>
       </c>
       <c r="H25" t="n">
-        <v>0.53781512605042</v>
+        <v>0.414634146341463</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>0.032</v>
+        <v>0.49</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0004141156462585</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0014847560975609</v>
+        <v>-0.0157006716018025</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0006612386174949</v>
+        <v>0.0125034487827462</v>
       </c>
       <c r="N25" t="n">
-        <v>-1.29411139455782</v>
+        <v>0</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2734,11 +2734,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.798436024806603</v>
+        <v>0.9783137137871361</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.949579831932773</v>
+        <v>0.848837209302326</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>6.4</v>
+        <v>10.41</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.0860117743702081</v>
+        <v>0.0326984740852854</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.280747286838244</v>
+        <v>0.008285442584041999</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0746049225968177</v>
+        <v>0.0576685870695335</v>
       </c>
       <c r="N26" t="n">
-        <v>-1.3439339745345</v>
+        <v>0.314106379301492</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,46 +2825,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>15</v>
       </c>
       <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0001221125707272</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.107344632768362</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.129943502824859</v>
+      </c>
+      <c r="I27" t="n">
         <v>1</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>0.846199999559381</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.0461538461538462</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.392307692307692</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2</v>
-      </c>
       <c r="J27" t="n">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="K27" t="n">
-        <v>0.004088279219505</v>
+        <v>0.0003525579150579</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>0.0001870722495022</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0215432644448611</v>
+        <v>0.0005213600900501</v>
       </c>
       <c r="N27" t="n">
-        <v>0.817655843901019</v>
+        <v>3.52557915057915</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.428749640515761</v>
+        <v>0.355174556110137</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0228571428571429</v>
       </c>
       <c r="H28" t="n">
-        <v>0.844827586206897</v>
+        <v>0.645714285714286</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>10.455</v>
+        <v>140</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0033259997904866</v>
+        <v>0.709498834498834</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0351099475608456</v>
+        <v>-1.89922069039826</v>
       </c>
       <c r="M28" t="n">
-        <v>0.02604767027856</v>
+        <v>4.98360879241414</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.0318125278860515</v>
+        <v>0.506784881784882</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.0001712248174078</v>
+        <v>0.731914809842497</v>
       </c>
       <c r="G29" t="n">
-        <v>0.106741573033708</v>
+        <v>0.751479289940828</v>
       </c>
       <c r="H29" t="n">
-        <v>0.129213483146067</v>
+        <v>0.289940828402367</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J29" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0003489967239967</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0001779683834349</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0005084952947861</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3.48996723996724</v>
+        <v>0</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3109,35 +3109,35 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.74484544469208</v>
+        <v>0.0875532493796921</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0225988700564972</v>
+        <v>0.234939759036145</v>
       </c>
       <c r="H30" t="n">
-        <v>0.672316384180791</v>
+        <v>0.120481927710843</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>150</v>
+        <v>0.003</v>
       </c>
       <c r="K30" t="n">
-        <v>-1.16626876187979</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-4.77521345785654</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.57067660625277</v>
+        <v>0.000100180346831</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.777512507919862</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3189,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.641296151663441</v>
+        <v>0.0309045786878239</v>
       </c>
       <c r="G31" t="n">
-        <v>0.745562130177515</v>
+        <v>0.180722891566265</v>
       </c>
       <c r="H31" t="n">
-        <v>0.289940828402367</v>
+        <v>0.771084337349398</v>
       </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>0.005</v>
+        <v>0.2702</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>0.0016319680851063</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.0052107125672258</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>0.60398522764855</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.0065835902057167</v>
+        <v>0.08770348971170799</v>
       </c>
       <c r="G32" t="n">
-        <v>0.232258064516129</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.129032258064516</v>
+        <v>0.662790697674419</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.003</v>
+        <v>7.7</v>
       </c>
       <c r="K32" t="n">
-        <v>9.96317512274959e-05</v>
+        <v>-0.012003291947183</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-0.0271679974741659</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0001672869826749</v>
+        <v>0.0024966892606185</v>
       </c>
       <c r="N32" t="n">
-        <v>3.32105837424986</v>
+        <v>-0.155886908404974</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3357,11 +3357,7 @@
           <t>Whau_3e</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3371,7 +3367,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3382,35 +3378,35 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.127716896890777</v>
+        <v>0.0181542698842284</v>
       </c>
       <c r="G33" t="n">
-        <v>0.183544303797468</v>
+        <v>0.0056497175141242</v>
       </c>
       <c r="H33" t="n">
-        <v>0.765822784810127</v>
+        <v>0.807909604519774</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.268</v>
+        <v>0.285</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.002946868112081</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.0003849800533828</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0037168759002687</v>
+        <v>0.0056496078367619</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1.03398881125652</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3415,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3450,7 +3446,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3462,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3477,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.19691173732343</v>
+        <v>0.389505621485116</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.686046511627907</v>
+        <v>0.664772727272727</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>7.665</v>
+        <v>0.55</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0080218056318143</v>
+        <v>0.0004478416584974</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0232900481041273</v>
+        <v>-0.0041865865066977</v>
       </c>
       <c r="M34" t="n">
-        <v>0.009971429727394201</v>
+        <v>0.0071120128913855</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.104654998458113</v>
+        <v>0.0814257560904474</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3539,7 +3535,11 @@
           <t>Whau_3e</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3549,14 +3549,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3564,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.191735149219041</v>
+        <v>0.159563796949807</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0056179775280898</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.814606741573034</v>
+        <v>0.468926553672316</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.2725</v>
+        <v>0.031</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0009192376940717</v>
+        <v>0.0003345585613438</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0008095395772091</v>
+        <v>-0.0002186038025297</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0032659030849268</v>
+        <v>0.0009207235561198</v>
       </c>
       <c r="N35" t="n">
-        <v>0.337334933604322</v>
+        <v>1.07922116562538</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.637416866558592</v>
+        <v>0.319851357556232</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.638418079096045</v>
+        <v>0.9209039548022599</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.541</v>
+        <v>5.26</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0014553927464625</v>
+        <v>0.0312046980991681</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0067064983456466</v>
+        <v>-0.051707932600541</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0039019049136286</v>
+        <v>0.154959930097233</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.269018991952404</v>
+        <v>0.5932452110108</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3719,7 +3719,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -3731,46 +3731,46 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.463901883656311</v>
+        <v>0.231216363225238</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.471910112359551</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.031</v>
+        <v>0.267</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-0.0193842274979524</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0005383556852297</v>
+        <v>-0.06473975667713711</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0005997536945812</v>
+        <v>0.0116187530436713</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>-7.26001029885856</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3808,11 +3808,7 @@
           <t>Whau_3e</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3822,46 +3818,46 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.110335680959923</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>1</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.636197870151501</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.932584269662921</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>5.7</v>
+        <v>84</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0153227999609324</v>
+        <v>-1.79599839545971</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.109129501733123</v>
+        <v>-8.49452977405481</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0860314387743638</v>
+        <v>0.06986913340034361</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.268821051946182</v>
+        <v>-2.13809332792823</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3870,7 +3866,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3899,11 +3895,7 @@
           <t>Whau_3e</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,7 +3905,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3928,7 +3920,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.231216363225238</v>
+        <v>0.5</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3940,19 +3932,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.275</v>
+        <v>4.11</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0201725707555727</v>
+        <v>0.0216828770956374</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0589197161929646</v>
+        <v>-1.20151765965572</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0116187530436713</v>
+        <v>0.376949973168355</v>
       </c>
       <c r="N39" t="n">
-        <v>-7.3354802747537</v>
+        <v>0.527563919601884</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3953,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -4000,11 +3992,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -4015,7 +4007,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.110335680959923</v>
+        <v>0.002103775642746</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -4027,19 +4019,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>89</v>
+        <v>0.305</v>
       </c>
       <c r="K40" t="n">
-        <v>-2.48386121099417</v>
+        <v>-0.0199681093394077</v>
       </c>
       <c r="L40" t="n">
-        <v>-6.84270567261108</v>
+        <v>-0.0268153864389067</v>
       </c>
       <c r="M40" t="n">
-        <v>0.06986913340034361</v>
+        <v>-0.0113738723333855</v>
       </c>
       <c r="N40" t="n">
-        <v>-2.79085529325187</v>
+        <v>-6.54692109488778</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4048,7 +4040,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4087,11 +4079,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
@@ -4102,7 +4094,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.889664319040077</v>
+        <v>0.003645179045768</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -4114,19 +4106,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>4.11</v>
+        <v>92</v>
       </c>
       <c r="K41" t="n">
-        <v>0.181100700936328</v>
+        <v>-1.9069682320442</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.198267265187523</v>
+        <v>-3.39676732284169</v>
       </c>
       <c r="M41" t="n">
-        <v>0.376949973168355</v>
+        <v>-1.4220562917499</v>
       </c>
       <c r="N41" t="n">
-        <v>4.40634308847513</v>
+        <v>-2.07279155656978</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4135,7 +4127,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4174,7 +4166,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -4189,7 +4181,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.015911563693245</v>
+        <v>0.429013828493761</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -4201,19 +4193,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.3265</v>
+        <v>4.018</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0122449712643678</v>
+        <v>-0.0142755443886096</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0234235740996437</v>
+        <v>-0.21721402866921</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.0066443725679829</v>
+        <v>0.0582595285374062</v>
       </c>
       <c r="N42" t="n">
-        <v>-3.75037404727957</v>
+        <v>-0.355289805590084</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4222,7 +4214,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4252,180 +4244,6 @@
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Mangawhero at Raupiu Road</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>10</v>
-      </c>
-      <c r="D43" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>0.0076611205275499</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-1.77675469075747</v>
-      </c>
-      <c r="L43" t="n">
-        <v>-2.88174300707195</v>
-      </c>
-      <c r="M43" t="n">
-        <v>-1.00810395072428</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-1.88016369392325</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>Exceptionally unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q43" t="n">
-        <v>1799862</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5602910</v>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Whanganui District</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>Whangaehu</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>Lower Whangaehu</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>Whau_3e</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Mangawhero at Raupiu Road</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>10</v>
-      </c>
-      <c r="D44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>0.429013828493761</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-0.0142755443886096</v>
-      </c>
-      <c r="L44" t="n">
-        <v>-0.137173659970372</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.0582595285374062</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-0.34989079383847</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>1799862</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5602910</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Whanganui District</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>Whangaehu</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>Lower Whangaehu</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>Whau_3e</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangawheroatRaupiuRoad_cab14b25e7.xlsx
+++ b/trend_results/Rivers/MangawheroatRaupiuRoad_cab14b25e7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="65">
   <si>
     <t>site name</t>
   </si>
@@ -139,13 +139,13 @@
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
     <t>RepSite</t>
   </si>
   <si>
-    <t>Very likely increasing</t>
+    <t>As likely as not increasing</t>
   </si>
   <si>
     <t>Very unlikely improving</t>
@@ -154,31 +154,34 @@
     <t>As likely as not improving</t>
   </si>
   <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
-    <t>Extremely likely improving</t>
+    <t>Exceptionally unlikely improving</t>
   </si>
   <si>
     <t>Likely increasing</t>
   </si>
   <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely increasing</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
+    <t>Virtually certain improving</t>
   </si>
   <si>
     <t>Likely improving</t>
   </si>
   <si>
-    <t>Very unlikely increasing</t>
+    <t>Virtually certain increasing</t>
+  </si>
+  <si>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
   </si>
   <si>
     <t>Whanganui District</t>
@@ -563,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W42"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,31 +660,31 @@
         <v>39</v>
       </c>
       <c r="F2">
-        <v>0.946369420276943</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.946428571428571</v>
+        <v>0.981481481481482</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.615</v>
+        <v>10.62</v>
       </c>
       <c r="K2">
-        <v>0.09055785123966929</v>
+        <v>0.0149999999999997</v>
       </c>
       <c r="L2">
-        <v>-0.0011225839064131</v>
+        <v>-0.0602060439560442</v>
       </c>
       <c r="M2">
-        <v>0.147590354937868</v>
+        <v>0.080242716133686</v>
       </c>
       <c r="N2">
-        <v>0.8531121171895359</v>
+        <v>0.141242937853104</v>
       </c>
       <c r="O2" t="s">
         <v>42</v>
@@ -696,19 +699,19 @@
         <v>5602910</v>
       </c>
       <c r="S2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -728,31 +731,31 @@
         <v>39</v>
       </c>
       <c r="F3">
-        <v>0.0902454311447578</v>
+        <v>0.0567347075402157</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.396551724137931</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0115</v>
+        <v>0.01</v>
       </c>
       <c r="K3">
-        <v>0.0007678696566222</v>
+        <v>0.0007310266903439</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0020043519088364</v>
+        <v>0.001819540801506</v>
       </c>
       <c r="N3">
-        <v>6.67712744888943</v>
+        <v>7.31026690343944</v>
       </c>
       <c r="O3" t="s">
         <v>42</v>
@@ -767,19 +770,19 @@
         <v>5602910</v>
       </c>
       <c r="S3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -793,37 +796,37 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.547522829798345</v>
       </c>
       <c r="G4">
-        <v>0.0526315789473684</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="H4">
-        <v>0.754385964912281</v>
+        <v>0.814814814814815</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-1.7744939271255</v>
       </c>
       <c r="L4">
-        <v>-13.3401054252038</v>
+        <v>-28.2153457787656</v>
       </c>
       <c r="M4">
-        <v>49.4863410660955</v>
+        <v>39.2353537891247</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>-1.182995951417</v>
       </c>
       <c r="O4" t="s">
         <v>42</v>
@@ -838,19 +841,19 @@
         <v>5602910</v>
       </c>
       <c r="S4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -867,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <v>0.114859882726726</v>
+        <v>0.0428724744434079</v>
       </c>
       <c r="G5">
-        <v>0.759259259259259</v>
+        <v>0.764705882352941</v>
       </c>
       <c r="H5">
-        <v>0.277777777777778</v>
+        <v>0.235294117647059</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0.005</v>
@@ -909,19 +912,19 @@
         <v>5602910</v>
       </c>
       <c r="S5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -935,37 +938,37 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>39</v>
       </c>
       <c r="F6">
-        <v>0.982621049469406</v>
+        <v>0.98826786783997</v>
       </c>
       <c r="G6">
-        <v>0.192982456140351</v>
+        <v>0.232142857142857</v>
       </c>
       <c r="H6">
-        <v>0.157894736842105</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="K6">
-        <v>-0.0003069327731092</v>
+        <v>-0.0005027531631179</v>
       </c>
       <c r="L6">
-        <v>-0.000668956043956</v>
+        <v>-0.0009932907975666</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>-7.67331932773109</v>
+        <v>-16.7584387705996</v>
       </c>
       <c r="O6" t="s">
         <v>42</v>
@@ -980,19 +983,19 @@
         <v>5602910</v>
       </c>
       <c r="S6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1006,43 +1009,43 @@
         <v>5</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7">
-        <v>0.130225672410213</v>
+        <v>0.403458023051679</v>
       </c>
       <c r="G7">
-        <v>0.157894736842105</v>
+        <v>0.178571428571429</v>
       </c>
       <c r="H7">
-        <v>0.8245614035087721</v>
+        <v>0.803571428571429</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.289</v>
+        <v>0.288</v>
       </c>
       <c r="K7">
-        <v>0.0201563895490993</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>-0.0077773116917405</v>
+        <v>-0.0070392087166489</v>
       </c>
       <c r="M7">
-        <v>0.062442290693147</v>
+        <v>0.0176579276960733</v>
       </c>
       <c r="N7">
-        <v>6.97452925574371</v>
+        <v>0</v>
       </c>
       <c r="O7" t="s">
         <v>42</v>
       </c>
       <c r="P7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q7">
         <v>1799862</v>
@@ -1051,19 +1054,19 @@
         <v>5602910</v>
       </c>
       <c r="S7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1083,13 +1086,13 @@
         <v>39</v>
       </c>
       <c r="F8">
-        <v>0.890795406690379</v>
+        <v>0.532979046444046</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.857142857142857</v>
+        <v>0.8490566037735851</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1098,22 +1101,22 @@
         <v>7.6</v>
       </c>
       <c r="K8">
-        <v>0.0493581081081088</v>
+        <v>0.0100481430536451</v>
       </c>
       <c r="L8">
-        <v>-0.0026590534555604</v>
+        <v>-0.0714539699952465</v>
       </c>
       <c r="M8">
-        <v>0.0982909930210549</v>
+        <v>0.0545609345935971</v>
       </c>
       <c r="N8">
-        <v>0.649448790896168</v>
+        <v>0.132212408600594</v>
       </c>
       <c r="O8" t="s">
         <v>42</v>
       </c>
       <c r="P8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q8">
         <v>1799862</v>
@@ -1122,16 +1125,16 @@
         <v>5602910</v>
       </c>
       <c r="S8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1151,37 +1154,37 @@
         <v>39</v>
       </c>
       <c r="F9">
-        <v>8.50348606845953E-05</v>
+        <v>0.202166457247807</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.948275862068966</v>
+        <v>0.947368421052632</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.308</v>
+        <v>0.315</v>
       </c>
       <c r="K9">
-        <v>0.0305011574464496</v>
+        <v>0.0054306735311179</v>
       </c>
       <c r="L9">
-        <v>0.0137760012624862</v>
+        <v>-0.0065933133366173</v>
       </c>
       <c r="M9">
-        <v>0.0496976536065399</v>
+        <v>0.0218497063102861</v>
       </c>
       <c r="N9">
-        <v>9.902973196899231</v>
+        <v>1.72402334321204</v>
       </c>
       <c r="O9" t="s">
         <v>42</v>
       </c>
       <c r="P9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q9">
         <v>1799862</v>
@@ -1190,19 +1193,19 @@
         <v>5602910</v>
       </c>
       <c r="S9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1222,37 +1225,37 @@
         <v>39</v>
       </c>
       <c r="F10">
-        <v>0.125905377628042</v>
+        <v>0.217672938272572</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.736842105263158</v>
+        <v>0.732142857142857</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5600000000000001</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="K10">
-        <v>0.023190709908893</v>
+        <v>0.009939677068214799</v>
       </c>
       <c r="L10">
-        <v>-0.0045738736802244</v>
+        <v>-0.012694132687129</v>
       </c>
       <c r="M10">
-        <v>0.0697895815026999</v>
+        <v>0.0428278312912209</v>
       </c>
       <c r="N10">
-        <v>4.14119819801661</v>
+        <v>1.75923487933006</v>
       </c>
       <c r="O10" t="s">
         <v>42</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q10">
         <v>1799862</v>
@@ -1261,19 +1264,19 @@
         <v>5602910</v>
       </c>
       <c r="S10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1293,37 +1296,37 @@
         <v>39</v>
       </c>
       <c r="F11">
-        <v>0.0314746756709808</v>
+        <v>0.107501480339038</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.689655172413793</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0335</v>
+        <v>0.035</v>
       </c>
       <c r="K11">
-        <v>0.0040137362637362</v>
+        <v>0.0022012282082324</v>
       </c>
       <c r="L11">
-        <v>0.0002913832619108</v>
+        <v>-0.0006836545467606</v>
       </c>
       <c r="M11">
-        <v>0.0082468089019457</v>
+        <v>0.0060373616939771</v>
       </c>
       <c r="N11">
-        <v>11.9813022798097</v>
+        <v>6.2892234520927</v>
       </c>
       <c r="O11" t="s">
         <v>42</v>
       </c>
       <c r="P11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q11">
         <v>1799862</v>
@@ -1332,19 +1335,19 @@
         <v>5602910</v>
       </c>
       <c r="S11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1358,43 +1361,43 @@
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>39</v>
       </c>
       <c r="F12">
-        <v>0.253508774251516</v>
+        <v>0.541122731954267</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.982758620689655</v>
+        <v>0.9649122807017541</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.43</v>
+        <v>5.87</v>
       </c>
       <c r="K12">
-        <v>0.173915010803947</v>
+        <v>-0.02538234264468</v>
       </c>
       <c r="L12">
-        <v>-0.19349695894046</v>
+        <v>-0.929245629773474</v>
       </c>
       <c r="M12">
-        <v>1.33951111591079</v>
+        <v>0.836106190544498</v>
       </c>
       <c r="N12">
-        <v>3.20285471093825</v>
+        <v>-0.432407881510733</v>
       </c>
       <c r="O12" t="s">
         <v>42</v>
       </c>
       <c r="P12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q12">
         <v>1799862</v>
@@ -1403,19 +1406,19 @@
         <v>5602910</v>
       </c>
       <c r="S12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1435,31 +1438,31 @@
         <v>39</v>
       </c>
       <c r="F13">
-        <v>0.0005327192829039</v>
+        <v>0.000492477451687</v>
       </c>
       <c r="G13">
-        <v>0.0487804878048781</v>
+        <v>0.0506329113924051</v>
       </c>
       <c r="H13">
-        <v>0.524390243902439</v>
+        <v>0.518987341772152</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.485</v>
+        <v>0.4</v>
       </c>
       <c r="K13">
-        <v>-0.0724702380952381</v>
+        <v>-0.0603719008264463</v>
       </c>
       <c r="L13">
-        <v>-0.132862018906872</v>
+        <v>-0.110098835836332</v>
       </c>
       <c r="M13">
-        <v>-0.0272054230309465</v>
+        <v>-0.0209744102522799</v>
       </c>
       <c r="N13">
-        <v>-14.9423171330388</v>
+        <v>-15.0929752066116</v>
       </c>
       <c r="O13" t="s">
         <v>42</v>
@@ -1474,19 +1477,19 @@
         <v>5602910</v>
       </c>
       <c r="S13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1506,37 +1509,37 @@
         <v>39</v>
       </c>
       <c r="F14">
-        <v>0.976636897618723</v>
+        <v>0.89878643977016</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.895652173913044</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.55</v>
+        <v>10.585</v>
       </c>
       <c r="K14">
-        <v>0.0343222351819258</v>
+        <v>0.0185406091370559</v>
       </c>
       <c r="L14">
-        <v>0.0063705853324666</v>
+        <v>-0.004411531648845</v>
       </c>
       <c r="M14">
-        <v>0.06604674907343359</v>
+        <v>0.0401560136916579</v>
       </c>
       <c r="N14">
-        <v>0.325329243430576</v>
+        <v>0.175159273850316</v>
       </c>
       <c r="O14" t="s">
         <v>42</v>
       </c>
       <c r="P14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q14">
         <v>1799862</v>
@@ -1545,19 +1548,19 @@
         <v>5602910</v>
       </c>
       <c r="S14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1577,13 +1580,13 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.391590734034656</v>
+        <v>0.234168671113396</v>
       </c>
       <c r="G15">
-        <v>0.0508474576271186</v>
+        <v>0.0512820512820513</v>
       </c>
       <c r="H15">
-        <v>0.194915254237288</v>
+        <v>0.196581196581197</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1595,10 +1598,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>-0.0002449698189134</v>
+        <v>-0.0001156198424526</v>
       </c>
       <c r="M15">
-        <v>0.0003478571428571</v>
+        <v>0.0003824770125272</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1607,7 +1610,7 @@
         <v>42</v>
       </c>
       <c r="P15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q15">
         <v>1799862</v>
@@ -1616,19 +1619,19 @@
         <v>5602910</v>
       </c>
       <c r="S15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1648,37 +1651,37 @@
         <v>39</v>
       </c>
       <c r="F16">
-        <v>0.322972205631948</v>
+        <v>0.631046699133154</v>
       </c>
       <c r="G16">
-        <v>0.0258620689655172</v>
+        <v>0.0353982300884956</v>
       </c>
       <c r="H16">
-        <v>0.646551724137931</v>
+        <v>0.690265486725664</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K16">
-        <v>2.01239669421488</v>
+        <v>-0.997950819672131</v>
       </c>
       <c r="L16">
-        <v>-4.29898068841707</v>
+        <v>-9.292871982922589</v>
       </c>
       <c r="M16">
-        <v>13.3585715412305</v>
+        <v>5.46644116217307</v>
       </c>
       <c r="N16">
-        <v>1.38785978911371</v>
+        <v>-0.665300546448087</v>
       </c>
       <c r="O16" t="s">
         <v>42</v>
       </c>
       <c r="P16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q16">
         <v>1799862</v>
@@ -1687,19 +1690,19 @@
         <v>5602910</v>
       </c>
       <c r="S16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1719,13 +1722,13 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.114285950235469</v>
+        <v>0.060870604801472</v>
       </c>
       <c r="G17">
-        <v>0.794642857142857</v>
+        <v>0.798165137614679</v>
       </c>
       <c r="H17">
-        <v>0.258928571428571</v>
+        <v>0.247706422018349</v>
       </c>
       <c r="I17">
         <v>7</v>
@@ -1749,7 +1752,7 @@
         <v>42</v>
       </c>
       <c r="P17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q17">
         <v>1799862</v>
@@ -1758,19 +1761,19 @@
         <v>5602910</v>
       </c>
       <c r="S17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1790,37 +1793,37 @@
         <v>40</v>
       </c>
       <c r="F18">
-        <v>0.986721153392459</v>
+        <v>0.999696875566396</v>
       </c>
       <c r="G18">
-        <v>0.153846153846154</v>
+        <v>0.181034482758621</v>
       </c>
       <c r="H18">
-        <v>0.162393162393162</v>
+        <v>0.146551724137931</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.004</v>
+        <v>0.0035</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>-0.0002496582365003</v>
       </c>
       <c r="L18">
-        <v>-0.0002496582365003</v>
+        <v>-0.0003450273874754</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>-7.13309247143834</v>
       </c>
       <c r="O18" t="s">
         <v>42</v>
       </c>
       <c r="P18" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Q18">
         <v>1799862</v>
@@ -1829,19 +1832,19 @@
         <v>5602910</v>
       </c>
       <c r="S18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1861,37 +1864,37 @@
         <v>40</v>
       </c>
       <c r="F19">
-        <v>0.016962871584832</v>
+        <v>0.555616103319603</v>
       </c>
       <c r="G19">
-        <v>0.179487179487179</v>
+        <v>0.172413793103448</v>
       </c>
       <c r="H19">
-        <v>0.777777777777778</v>
+        <v>0.7844827586206899</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.271</v>
+        <v>0.2745</v>
       </c>
       <c r="K19">
-        <v>0.0034410328879753</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-0.001004335390526</v>
       </c>
       <c r="M19">
-        <v>0.008330362274557</v>
+        <v>0.0020854368343092</v>
       </c>
       <c r="N19">
-        <v>1.26975383320123</v>
+        <v>0</v>
       </c>
       <c r="O19" t="s">
         <v>42</v>
       </c>
       <c r="P19" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q19">
         <v>1799862</v>
@@ -1900,19 +1903,19 @@
         <v>5602910</v>
       </c>
       <c r="S19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1932,13 +1935,13 @@
         <v>39</v>
       </c>
       <c r="F20">
-        <v>0.586550094798959</v>
+        <v>0.633072150926136</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.747826086956522</v>
+        <v>0.75</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1947,22 +1950,22 @@
         <v>7.61</v>
       </c>
       <c r="K20">
-        <v>0.0029130226301215</v>
+        <v>0.0053676849691404</v>
       </c>
       <c r="L20">
-        <v>-0.0185377917470355</v>
+        <v>-0.0155483788076869</v>
       </c>
       <c r="M20">
-        <v>0.0266827729604622</v>
+        <v>0.0274518021651905</v>
       </c>
       <c r="N20">
-        <v>0.0382788781881939</v>
+        <v>0.0705346250872588</v>
       </c>
       <c r="O20" t="s">
         <v>42</v>
       </c>
       <c r="P20" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="Q20">
         <v>1799862</v>
@@ -1971,16 +1974,16 @@
         <v>5602910</v>
       </c>
       <c r="S20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1997,40 +2000,40 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F21">
-        <v>0.0040579747152064</v>
+        <v>0.446695725517498</v>
       </c>
       <c r="G21">
-        <v>0.008474576271186401</v>
+        <v>0.008547008547008499</v>
       </c>
       <c r="H21">
-        <v>0.855932203389831</v>
+        <v>0.837606837606838</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.2915</v>
+        <v>0.298</v>
       </c>
       <c r="K21">
-        <v>0.0055521761734997</v>
+        <v>0.0002225098994821</v>
       </c>
       <c r="L21">
-        <v>0.00159934318555</v>
+        <v>-0.0039380053908355</v>
       </c>
       <c r="M21">
-        <v>0.0111807892140969</v>
+        <v>0.0042868873268273</v>
       </c>
       <c r="N21">
-        <v>1.90469165471688</v>
+        <v>0.0746677515040876</v>
       </c>
       <c r="O21" t="s">
         <v>42</v>
       </c>
       <c r="P21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q21">
         <v>1799862</v>
@@ -2039,19 +2042,19 @@
         <v>5602910</v>
       </c>
       <c r="S21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2071,37 +2074,37 @@
         <v>39</v>
       </c>
       <c r="F22">
-        <v>0.739949756491065</v>
+        <v>0.967484123723006</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.675213675213675</v>
+        <v>0.629310344827586</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.55</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="K22">
-        <v>-0.0024965823650034</v>
+        <v>-0.009818619339080599</v>
       </c>
       <c r="L22">
-        <v>-0.0099957339122292</v>
+        <v>-0.0159813823438934</v>
       </c>
       <c r="M22">
-        <v>0.0087003919348322</v>
+        <v>-0.0011485749414009</v>
       </c>
       <c r="N22">
-        <v>-0.453924066364256</v>
+        <v>-1.73780873258065</v>
       </c>
       <c r="O22" t="s">
         <v>42</v>
       </c>
       <c r="P22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Q22">
         <v>1799862</v>
@@ -2110,19 +2113,19 @@
         <v>5602910</v>
       </c>
       <c r="S22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2139,40 +2142,40 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F23">
-        <v>0.193333948300971</v>
+        <v>0.469003411281447</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.542372881355932</v>
+        <v>0.555555555555556</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="K23">
-        <v>0.0005044889502762001</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>-0.0004674405968376</v>
+        <v>-0.0010205408097161</v>
       </c>
       <c r="M23">
-        <v>0.0014908163265306</v>
+        <v>0.0010926937684794</v>
       </c>
       <c r="N23">
-        <v>1.62738371056853</v>
+        <v>0</v>
       </c>
       <c r="O23" t="s">
         <v>42</v>
       </c>
       <c r="P23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q23">
         <v>1799862</v>
@@ -2181,19 +2184,19 @@
         <v>5602910</v>
       </c>
       <c r="S23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2213,37 +2216,37 @@
         <v>39</v>
       </c>
       <c r="F24">
-        <v>0.531594034257647</v>
+        <v>0.838635791860263</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.940677966101695</v>
+        <v>0.965811965811966</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.43</v>
+        <v>6.02</v>
       </c>
       <c r="K24">
-        <v>-0.0076735904840706</v>
+        <v>-0.121196590909091</v>
       </c>
       <c r="L24">
-        <v>-0.179961094916519</v>
+        <v>-0.294996998095787</v>
       </c>
       <c r="M24">
-        <v>0.175335440260355</v>
+        <v>0.06308863636363631</v>
       </c>
       <c r="N24">
-        <v>-0.141318425121006</v>
+        <v>-2.01323240712776</v>
       </c>
       <c r="O24" t="s">
         <v>42</v>
       </c>
       <c r="P24" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q24">
         <v>1799862</v>
@@ -2252,19 +2255,19 @@
         <v>5602910</v>
       </c>
       <c r="S24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2278,43 +2281,43 @@
         <v>15</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>0.033248934642775</v>
       </c>
       <c r="G25">
-        <v>0.040650406504065</v>
+        <v>0.040983606557377</v>
       </c>
       <c r="H25">
-        <v>0.414634146341463</v>
+        <v>0.426229508196721</v>
       </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25">
-        <v>0.49</v>
+        <v>0.475</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>-0.0134944581280788</v>
       </c>
       <c r="L25">
-        <v>-0.0157006716018025</v>
+        <v>-0.0347959320611786</v>
       </c>
       <c r="M25">
-        <v>0.0125034487827462</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>-2.84093855327975</v>
       </c>
       <c r="O25" t="s">
         <v>42</v>
       </c>
       <c r="P25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q25">
         <v>1799862</v>
@@ -2323,19 +2326,19 @@
         <v>5602910</v>
       </c>
       <c r="S25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2355,37 +2358,37 @@
         <v>39</v>
       </c>
       <c r="F26">
-        <v>0.9783137137871361</v>
+        <v>0.993520046381187</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.848837209302326</v>
+        <v>0.853801169590643</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>10.41</v>
+        <v>10.51</v>
       </c>
       <c r="K26">
-        <v>0.0326984740852854</v>
+        <v>0.0324555707450446</v>
       </c>
       <c r="L26">
-        <v>0.008285442584041999</v>
+        <v>0.0108013541349511</v>
       </c>
       <c r="M26">
-        <v>0.0576685870695335</v>
+        <v>0.0548979094321598</v>
       </c>
       <c r="N26">
-        <v>0.314106379301492</v>
+        <v>0.308806572264935</v>
       </c>
       <c r="O26" t="s">
         <v>42</v>
       </c>
       <c r="P26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q26">
         <v>1799862</v>
@@ -2394,19 +2397,19 @@
         <v>5602910</v>
       </c>
       <c r="S26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2426,13 +2429,13 @@
         <v>39</v>
       </c>
       <c r="F27">
-        <v>0.0001221125707272</v>
+        <v>0.0025292791900234</v>
       </c>
       <c r="G27">
-        <v>0.107344632768362</v>
+        <v>0.102272727272727</v>
       </c>
       <c r="H27">
-        <v>0.129943502824859</v>
+        <v>0.130681818181818</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -2441,16 +2444,16 @@
         <v>0.01</v>
       </c>
       <c r="K27">
-        <v>0.0003525579150579</v>
+        <v>0.0002725577031108</v>
       </c>
       <c r="L27">
-        <v>0.0001870722495022</v>
+        <v>6.955635709658551E-05</v>
       </c>
       <c r="M27">
-        <v>0.0005213600900501</v>
+        <v>0.0004397733848188</v>
       </c>
       <c r="N27">
-        <v>3.52557915057915</v>
+        <v>2.72557703110895</v>
       </c>
       <c r="O27" t="s">
         <v>42</v>
@@ -2465,19 +2468,19 @@
         <v>5602910</v>
       </c>
       <c r="S27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2497,13 +2500,13 @@
         <v>39</v>
       </c>
       <c r="F28">
-        <v>0.355174556110137</v>
+        <v>0.386427744055961</v>
       </c>
       <c r="G28">
-        <v>0.0228571428571429</v>
+        <v>0.0290697674418605</v>
       </c>
       <c r="H28">
-        <v>0.645714285714286</v>
+        <v>0.656976744186046</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2512,16 +2515,16 @@
         <v>140</v>
       </c>
       <c r="K28">
-        <v>0.709498834498834</v>
+        <v>0.42249745548019</v>
       </c>
       <c r="L28">
-        <v>-1.89922069039826</v>
+        <v>-2.15533935946201</v>
       </c>
       <c r="M28">
-        <v>4.98360879241414</v>
+        <v>5.00706831471972</v>
       </c>
       <c r="N28">
-        <v>0.506784881784882</v>
+        <v>0.301783896771564</v>
       </c>
       <c r="O28" t="s">
         <v>42</v>
@@ -2536,19 +2539,19 @@
         <v>5602910</v>
       </c>
       <c r="S28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2568,16 +2571,16 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.731914809842497</v>
+        <v>0.865520487919997</v>
       </c>
       <c r="G29">
-        <v>0.751479289940828</v>
+        <v>0.740963855421687</v>
       </c>
       <c r="H29">
-        <v>0.289940828402367</v>
+        <v>0.289156626506024</v>
       </c>
       <c r="I29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J29">
         <v>0.005</v>
@@ -2598,7 +2601,7 @@
         <v>42</v>
       </c>
       <c r="P29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q29">
         <v>1799862</v>
@@ -2607,19 +2610,19 @@
         <v>5602910</v>
       </c>
       <c r="S29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2639,13 +2642,13 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.0875532493796921</v>
+        <v>0.343610494777068</v>
       </c>
       <c r="G30">
-        <v>0.234939759036145</v>
+        <v>0.24</v>
       </c>
       <c r="H30">
-        <v>0.120481927710843</v>
+        <v>0.114285714285714</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -2660,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0.000100180346831</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2669,7 +2672,7 @@
         <v>42</v>
       </c>
       <c r="P30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q30">
         <v>1799862</v>
@@ -2678,19 +2681,19 @@
         <v>5602910</v>
       </c>
       <c r="S30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2707,40 +2710,40 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F31">
-        <v>0.0309045786878239</v>
+        <v>0.295691352867739</v>
       </c>
       <c r="G31">
-        <v>0.180722891566265</v>
+        <v>0.188571428571429</v>
       </c>
       <c r="H31">
-        <v>0.771084337349398</v>
+        <v>0.76</v>
       </c>
       <c r="I31">
         <v>2</v>
       </c>
       <c r="J31">
-        <v>0.2702</v>
+        <v>0.255</v>
       </c>
       <c r="K31">
-        <v>0.0016319680851063</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0.0052107125672258</v>
+        <v>0.0020117777215979</v>
       </c>
       <c r="N31">
-        <v>0.60398522764855</v>
+        <v>0</v>
       </c>
       <c r="O31" t="s">
         <v>42</v>
       </c>
       <c r="P31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q31">
         <v>1799862</v>
@@ -2749,19 +2752,19 @@
         <v>5602910</v>
       </c>
       <c r="S31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2781,31 +2784,31 @@
         <v>39</v>
       </c>
       <c r="F32">
-        <v>0.08770348971170799</v>
+        <v>0.018304579229224</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.662790697674419</v>
+        <v>0.656804733727811</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>7.7</v>
+        <v>7.71</v>
       </c>
       <c r="K32">
-        <v>-0.012003291947183</v>
+        <v>-0.0173288081599251</v>
       </c>
       <c r="L32">
-        <v>-0.0271679974741659</v>
+        <v>-0.0328819988983609</v>
       </c>
       <c r="M32">
-        <v>0.0024966892606185</v>
+        <v>-0.0020863904364838</v>
       </c>
       <c r="N32">
-        <v>-0.155886908404974</v>
+        <v>-0.224757563682557</v>
       </c>
       <c r="O32" t="s">
         <v>42</v>
@@ -2820,16 +2823,16 @@
         <v>5602910</v>
       </c>
       <c r="S32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2849,13 +2852,13 @@
         <v>39</v>
       </c>
       <c r="F33">
-        <v>0.0181542698842284</v>
+        <v>0.234746357246246</v>
       </c>
       <c r="G33">
-        <v>0.0056497175141242</v>
+        <v>0.0056818181818181</v>
       </c>
       <c r="H33">
-        <v>0.807909604519774</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -2864,22 +2867,22 @@
         <v>0.285</v>
       </c>
       <c r="K33">
-        <v>0.002946868112081</v>
+        <v>0.0008654314406648</v>
       </c>
       <c r="L33">
-        <v>0.0003849800533828</v>
+        <v>-0.0009986136325789</v>
       </c>
       <c r="M33">
-        <v>0.0056496078367619</v>
+        <v>0.0037438698977929</v>
       </c>
       <c r="N33">
-        <v>1.03398881125652</v>
+        <v>0.30366015461923</v>
       </c>
       <c r="O33" t="s">
         <v>42</v>
       </c>
       <c r="P33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q33">
         <v>1799862</v>
@@ -2888,19 +2891,19 @@
         <v>5602910</v>
       </c>
       <c r="S33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2920,13 +2923,13 @@
         <v>39</v>
       </c>
       <c r="F34">
-        <v>0.389505621485116</v>
+        <v>0.825745018663318</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.664772727272727</v>
+        <v>0.64</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2935,22 +2938,22 @@
         <v>0.55</v>
       </c>
       <c r="K34">
-        <v>0.0004478416584974</v>
+        <v>-0.0033318145583552</v>
       </c>
       <c r="L34">
-        <v>-0.0041865865066977</v>
+        <v>-0.007783486842059</v>
       </c>
       <c r="M34">
-        <v>0.0071120128913855</v>
+        <v>0.0025138933597122</v>
       </c>
       <c r="N34">
-        <v>0.0814257560904474</v>
+        <v>-0.605784465155504</v>
       </c>
       <c r="O34" t="s">
         <v>42</v>
       </c>
       <c r="P34" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q34">
         <v>1799862</v>
@@ -2959,19 +2962,19 @@
         <v>5602910</v>
       </c>
       <c r="S34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2991,37 +2994,37 @@
         <v>39</v>
       </c>
       <c r="F35">
-        <v>0.159563796949807</v>
+        <v>0.28102061993911</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.468926553672316</v>
+        <v>0.443181818181818</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.031</v>
+        <v>0.0305</v>
       </c>
       <c r="K35">
-        <v>0.0003345585613438</v>
+        <v>0.0001786718872264</v>
       </c>
       <c r="L35">
-        <v>-0.0002186038025297</v>
+        <v>-0.0003380273670511</v>
       </c>
       <c r="M35">
-        <v>0.0009207235561198</v>
+        <v>0.0007395302775128</v>
       </c>
       <c r="N35">
-        <v>1.07922116562538</v>
+        <v>0.585809466316174</v>
       </c>
       <c r="O35" t="s">
         <v>42</v>
       </c>
       <c r="P35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q35">
         <v>1799862</v>
@@ -3030,19 +3033,19 @@
         <v>5602910</v>
       </c>
       <c r="S35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3062,13 +3065,13 @@
         <v>39</v>
       </c>
       <c r="F36">
-        <v>0.319851357556232</v>
+        <v>0.406735781724405</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.9209039548022599</v>
+        <v>0.920454545454545</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3077,22 +3080,22 @@
         <v>5.26</v>
       </c>
       <c r="K36">
-        <v>0.0312046980991681</v>
+        <v>0.0110193365988845</v>
       </c>
       <c r="L36">
-        <v>-0.051707932600541</v>
+        <v>-0.061678154339649</v>
       </c>
       <c r="M36">
-        <v>0.154959930097233</v>
+        <v>0.143918150659378</v>
       </c>
       <c r="N36">
-        <v>0.5932452110108</v>
+        <v>0.209493091233545</v>
       </c>
       <c r="O36" t="s">
         <v>42</v>
       </c>
       <c r="P36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q36">
         <v>1799862</v>
@@ -3101,19 +3104,19 @@
         <v>5602910</v>
       </c>
       <c r="S36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3121,49 +3124,49 @@
         <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="s">
         <v>39</v>
       </c>
       <c r="F37">
-        <v>0.231216363225238</v>
+        <v>0.604266959062719</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0.831632653061224</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.267</v>
+        <v>10.52</v>
       </c>
       <c r="K37">
-        <v>-0.0193842274979524</v>
+        <v>0.0049727705922397</v>
       </c>
       <c r="L37">
-        <v>-0.06473975667713711</v>
+        <v>-0.0207312187581243</v>
       </c>
       <c r="M37">
-        <v>0.0116187530436713</v>
+        <v>0.0251316312495869</v>
       </c>
       <c r="N37">
-        <v>-7.26001029885856</v>
+        <v>0.0472696824357389</v>
       </c>
       <c r="O37" t="s">
         <v>42</v>
       </c>
       <c r="P37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q37">
         <v>1799862</v>
@@ -3172,16 +3175,19 @@
         <v>5602910</v>
       </c>
       <c r="S37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V37" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="W37" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3189,10 +3195,10 @@
         <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -3201,37 +3207,37 @@
         <v>39</v>
       </c>
       <c r="F38">
-        <v>0.110335680959923</v>
+        <v>0.0094867956615778</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>0.0990566037735849</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0.127358490566038</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>84</v>
+        <v>0.01</v>
       </c>
       <c r="K38">
-        <v>-1.79599839545971</v>
+        <v>0.0001636791478097</v>
       </c>
       <c r="L38">
-        <v>-8.49452977405481</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>0.06986913340034361</v>
+        <v>0.0002962345833494</v>
       </c>
       <c r="N38">
-        <v>-2.13809332792823</v>
+        <v>1.636791478097</v>
       </c>
       <c r="O38" t="s">
         <v>42</v>
       </c>
       <c r="P38" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q38">
         <v>1799862</v>
@@ -3240,16 +3246,19 @@
         <v>5602910</v>
       </c>
       <c r="S38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V38" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="W38" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3257,49 +3266,49 @@
         <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
         <v>39</v>
       </c>
       <c r="F39">
-        <v>0.5</v>
+        <v>0.8721617983302909</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>0.0241545893719807</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0.681159420289855</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>4.11</v>
+        <v>150</v>
       </c>
       <c r="K39">
-        <v>0.0216828770956374</v>
+        <v>-1.49856400437637</v>
       </c>
       <c r="L39">
-        <v>-1.20151765965572</v>
+        <v>-4.55724969364724</v>
       </c>
       <c r="M39">
-        <v>0.376949973168355</v>
+        <v>0.683321584539043</v>
       </c>
       <c r="N39">
-        <v>0.527563919601884</v>
+        <v>-0.999042669584245</v>
       </c>
       <c r="O39" t="s">
         <v>42</v>
       </c>
       <c r="P39" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q39">
         <v>1799862</v>
@@ -3308,16 +3317,19 @@
         <v>5602910</v>
       </c>
       <c r="S39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V39" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="W39" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3325,49 +3337,49 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40">
+        <v>0.618415635512379</v>
+      </c>
+      <c r="G40">
+        <v>0.756218905472637</v>
+      </c>
+      <c r="H40">
+        <v>0.278606965174129</v>
+      </c>
+      <c r="I40">
         <v>10</v>
       </c>
-      <c r="D40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>39</v>
-      </c>
-      <c r="F40">
-        <v>0.002103775642746</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
       <c r="J40">
-        <v>0.305</v>
+        <v>0.005</v>
       </c>
       <c r="K40">
-        <v>-0.0199681093394077</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>-0.0268153864389067</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>-0.0113738723333855</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>-6.54692109488778</v>
+        <v>0</v>
       </c>
       <c r="O40" t="s">
         <v>42</v>
       </c>
       <c r="P40" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q40">
         <v>1799862</v>
@@ -3376,16 +3388,19 @@
         <v>5602910</v>
       </c>
       <c r="S40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V40" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="W40" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3393,49 +3408,49 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F41">
-        <v>0.003645179045768</v>
+        <v>0.345073458315052</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>0.177083333333333</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0.744791666666667</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J41">
-        <v>92</v>
+        <v>0.27</v>
       </c>
       <c r="K41">
-        <v>-1.9069682320442</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>-3.39676732284169</v>
+        <v>-0.0002384898197498</v>
       </c>
       <c r="M41">
-        <v>-1.4220562917499</v>
+        <v>0.0012907452034926</v>
       </c>
       <c r="N41">
-        <v>-2.07279155656978</v>
+        <v>0</v>
       </c>
       <c r="O41" t="s">
         <v>42</v>
       </c>
       <c r="P41" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q41">
         <v>1799862</v>
@@ -3444,16 +3459,19 @@
         <v>5602910</v>
       </c>
       <c r="S41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V41" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="W41" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3461,67 +3479,759 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
         <v>39</v>
       </c>
       <c r="F42">
-        <v>0.429013828493761</v>
+        <v>0.179101148676944</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0.6354679802955669</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>4.018</v>
+        <v>7.67</v>
       </c>
       <c r="K42">
-        <v>-0.0142755443886096</v>
+        <v>-0.0062564234326824</v>
       </c>
       <c r="L42">
+        <v>-0.0208522158709393</v>
+      </c>
+      <c r="M42">
+        <v>0.0053142318294885</v>
+      </c>
+      <c r="N42">
+        <v>-0.0815700577924694</v>
+      </c>
+      <c r="O42" t="s">
+        <v>42</v>
+      </c>
+      <c r="P42" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q42">
+        <v>1799862</v>
+      </c>
+      <c r="R42">
+        <v>5602910</v>
+      </c>
+      <c r="S42" t="s">
+        <v>56</v>
+      </c>
+      <c r="T42" t="s">
+        <v>57</v>
+      </c>
+      <c r="U42" t="s">
+        <v>58</v>
+      </c>
+      <c r="V42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43">
+        <v>0.310356405317878</v>
+      </c>
+      <c r="G43">
+        <v>0.0094339622641509</v>
+      </c>
+      <c r="H43">
+        <v>0.806603773584906</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>0.2755</v>
+      </c>
+      <c r="K43">
+        <v>0.0002672231058819</v>
+      </c>
+      <c r="L43">
+        <v>-0.0012637810210431</v>
+      </c>
+      <c r="M43">
+        <v>0.0022164681076276</v>
+      </c>
+      <c r="N43">
+        <v>0.0969956827157811</v>
+      </c>
+      <c r="O43" t="s">
+        <v>42</v>
+      </c>
+      <c r="P43" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q43">
+        <v>1799862</v>
+      </c>
+      <c r="R43">
+        <v>5602910</v>
+      </c>
+      <c r="S43" t="s">
+        <v>56</v>
+      </c>
+      <c r="T43" t="s">
+        <v>57</v>
+      </c>
+      <c r="U43" t="s">
+        <v>58</v>
+      </c>
+      <c r="V43" t="s">
+        <v>59</v>
+      </c>
+      <c r="W43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44">
+        <v>20</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44">
+        <v>0.654100757488851</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0.597156398104265</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0.55</v>
+      </c>
+      <c r="K44">
+        <v>-0.0006248930710008</v>
+      </c>
+      <c r="L44">
+        <v>-0.0049931647300068</v>
+      </c>
+      <c r="M44">
+        <v>0.0030654759523511</v>
+      </c>
+      <c r="N44">
+        <v>-0.113616922000155</v>
+      </c>
+      <c r="O44" t="s">
+        <v>42</v>
+      </c>
+      <c r="P44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q44">
+        <v>1799862</v>
+      </c>
+      <c r="R44">
+        <v>5602910</v>
+      </c>
+      <c r="S44" t="s">
+        <v>56</v>
+      </c>
+      <c r="T44" t="s">
+        <v>57</v>
+      </c>
+      <c r="U44" t="s">
+        <v>58</v>
+      </c>
+      <c r="V44" t="s">
+        <v>59</v>
+      </c>
+      <c r="W44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45">
+        <v>20</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45">
+        <v>0.654392847978424</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0.433962264150943</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0.031</v>
+      </c>
+      <c r="K45">
+        <v>-8.58202509544404E-05</v>
+      </c>
+      <c r="L45">
+        <v>-0.000548839612471</v>
+      </c>
+      <c r="M45">
+        <v>0.0003424615105292</v>
+      </c>
+      <c r="N45">
+        <v>-0.276839519207872</v>
+      </c>
+      <c r="O45" t="s">
+        <v>42</v>
+      </c>
+      <c r="P45" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q45">
+        <v>1799862</v>
+      </c>
+      <c r="R45">
+        <v>5602910</v>
+      </c>
+      <c r="S45" t="s">
+        <v>56</v>
+      </c>
+      <c r="T45" t="s">
+        <v>57</v>
+      </c>
+      <c r="U45" t="s">
+        <v>58</v>
+      </c>
+      <c r="V45" t="s">
+        <v>59</v>
+      </c>
+      <c r="W45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46">
+        <v>0.849221306210875</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0.924528301886792</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>5.7</v>
+      </c>
+      <c r="K46">
+        <v>-0.0316165783059085</v>
+      </c>
+      <c r="L46">
+        <v>-0.109727508428292</v>
+      </c>
+      <c r="M46">
+        <v>0.0340057321413456</v>
+      </c>
+      <c r="N46">
+        <v>-0.554676812384359</v>
+      </c>
+      <c r="O46" t="s">
+        <v>42</v>
+      </c>
+      <c r="P46" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q46">
+        <v>1799862</v>
+      </c>
+      <c r="R46">
+        <v>5602910</v>
+      </c>
+      <c r="S46" t="s">
+        <v>56</v>
+      </c>
+      <c r="T46" t="s">
+        <v>57</v>
+      </c>
+      <c r="U46" t="s">
+        <v>58</v>
+      </c>
+      <c r="V46" t="s">
+        <v>59</v>
+      </c>
+      <c r="W46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0.267</v>
+      </c>
+      <c r="K47">
+        <v>0.0221589439655172</v>
+      </c>
+      <c r="L47">
+        <v>-0.06473975667713711</v>
+      </c>
+      <c r="M47">
+        <v>0.0643751250707562</v>
+      </c>
+      <c r="N47">
+        <v>8.29922994963192</v>
+      </c>
+      <c r="O47" t="s">
+        <v>42</v>
+      </c>
+      <c r="P47" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q47">
+        <v>1799862</v>
+      </c>
+      <c r="R47">
+        <v>5602910</v>
+      </c>
+      <c r="S47" t="s">
+        <v>56</v>
+      </c>
+      <c r="T47" t="s">
+        <v>57</v>
+      </c>
+      <c r="U47" t="s">
+        <v>58</v>
+      </c>
+      <c r="V47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>84</v>
+      </c>
+      <c r="K48">
+        <v>3.44321120689655</v>
+      </c>
+      <c r="L48">
+        <v>-4.25359561304413</v>
+      </c>
+      <c r="M48">
+        <v>6.73801174569634</v>
+      </c>
+      <c r="N48">
+        <v>4.09906096059113</v>
+      </c>
+      <c r="O48" t="s">
+        <v>42</v>
+      </c>
+      <c r="P48" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q48">
+        <v>1799862</v>
+      </c>
+      <c r="R48">
+        <v>5602910</v>
+      </c>
+      <c r="S48" t="s">
+        <v>56</v>
+      </c>
+      <c r="T48" t="s">
+        <v>57</v>
+      </c>
+      <c r="U48" t="s">
+        <v>58</v>
+      </c>
+      <c r="V48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49">
+        <v>0.5</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>4.157</v>
+      </c>
+      <c r="K49">
+        <v>-0.0034720588235293</v>
+      </c>
+      <c r="L49">
+        <v>-1.20151765965572</v>
+      </c>
+      <c r="M49">
+        <v>0.144346329379554</v>
+      </c>
+      <c r="N49">
+        <v>-0.08352318555519329</v>
+      </c>
+      <c r="O49" t="s">
+        <v>42</v>
+      </c>
+      <c r="P49" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q49">
+        <v>1799862</v>
+      </c>
+      <c r="R49">
+        <v>5602910</v>
+      </c>
+      <c r="S49" t="s">
+        <v>56</v>
+      </c>
+      <c r="T49" t="s">
+        <v>57</v>
+      </c>
+      <c r="U49" t="s">
+        <v>58</v>
+      </c>
+      <c r="V49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50">
+        <v>0.105248850027669</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0.305</v>
+      </c>
+      <c r="K50">
+        <v>-0.01397692740574</v>
+      </c>
+      <c r="L50">
+        <v>-0.0257687550048675</v>
+      </c>
+      <c r="M50">
+        <v>0.0012312605375815</v>
+      </c>
+      <c r="N50">
+        <v>-4.58259914942295</v>
+      </c>
+      <c r="O50" t="s">
+        <v>42</v>
+      </c>
+      <c r="P50" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q50">
+        <v>1799862</v>
+      </c>
+      <c r="R50">
+        <v>5602910</v>
+      </c>
+      <c r="S50" t="s">
+        <v>56</v>
+      </c>
+      <c r="T50" t="s">
+        <v>57</v>
+      </c>
+      <c r="U50" t="s">
+        <v>58</v>
+      </c>
+      <c r="V50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51">
+        <v>10</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51">
+        <v>0.07620314197837499</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>92</v>
+      </c>
+      <c r="K51">
+        <v>-1.74301227113362</v>
+      </c>
+      <c r="L51">
+        <v>-3.26149232487464</v>
+      </c>
+      <c r="M51">
+        <v>0.116304286215274</v>
+      </c>
+      <c r="N51">
+        <v>-1.89457855558002</v>
+      </c>
+      <c r="O51" t="s">
+        <v>42</v>
+      </c>
+      <c r="P51" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q51">
+        <v>1799862</v>
+      </c>
+      <c r="R51">
+        <v>5602910</v>
+      </c>
+      <c r="S51" t="s">
+        <v>56</v>
+      </c>
+      <c r="T51" t="s">
+        <v>57</v>
+      </c>
+      <c r="U51" t="s">
+        <v>58</v>
+      </c>
+      <c r="V51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52">
+        <v>0.570986171506239</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>4.08</v>
+      </c>
+      <c r="K52">
+        <v>0.0102371107266437</v>
+      </c>
+      <c r="L52">
         <v>-0.21721402866921</v>
       </c>
-      <c r="M42">
-        <v>0.0582595285374062</v>
-      </c>
-      <c r="N42">
-        <v>-0.355289805590084</v>
-      </c>
-      <c r="O42" t="s">
-        <v>42</v>
-      </c>
-      <c r="P42" t="s">
+      <c r="M52">
+        <v>0.0827751736248153</v>
+      </c>
+      <c r="N52">
+        <v>0.250909576633423</v>
+      </c>
+      <c r="O52" t="s">
+        <v>42</v>
+      </c>
+      <c r="P52" t="s">
         <v>45</v>
       </c>
-      <c r="Q42">
-        <v>1799862</v>
-      </c>
-      <c r="R42">
-        <v>5602910</v>
-      </c>
-      <c r="S42" t="s">
-        <v>55</v>
-      </c>
-      <c r="T42" t="s">
-        <v>56</v>
-      </c>
-      <c r="U42" t="s">
-        <v>57</v>
-      </c>
-      <c r="V42" t="s">
-        <v>58</v>
+      <c r="Q52">
+        <v>1799862</v>
+      </c>
+      <c r="R52">
+        <v>5602910</v>
+      </c>
+      <c r="S52" t="s">
+        <v>56</v>
+      </c>
+      <c r="T52" t="s">
+        <v>57</v>
+      </c>
+      <c r="U52" t="s">
+        <v>58</v>
+      </c>
+      <c r="V52" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
